--- a/temple_project/people/family.xlsx
+++ b/temple_project/people/family.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\YuntechProjects\testing-master\temple_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asd19\Downloads\重來幹\testing\temple_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A53C90-A092-4C75-9D3E-2D83DEFC4657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB6278B-8163-4EF7-8AB9-D80ABFB83C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17805" yWindow="3060" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26880" yWindow="1920" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>高雄市85</t>
   </si>
@@ -71,6 +71,12 @@
   <si>
     <t>0787413489</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0111111112</t>
+  </si>
+  <si>
+    <t>台北市101大樓43樓</t>
   </si>
 </sst>
 </file>
@@ -1025,19 +1031,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1045,7 +1051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1053,7 +1059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1061,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1069,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1077,7 +1083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1085,12 +1091,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
